--- a/GeekBrains/Lesson_8-Remote_branches/8_Commands.xlsx
+++ b/GeekBrains/Lesson_8-Remote_branches/8_Commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\GeekBrains\Lesson 8. Remote branches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\GeekBrains\Lesson_8-Remote_branches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DEC5C-E9BC-4B68-BF1B-FFFFE583492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77942D52-BABC-4393-B0DD-C09AF476D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2505" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Переименование локальной ветки</t>
   </si>
   <si>
-    <t>git push (origin :test_branch)</t>
-  </si>
-  <si>
     <t>git push (origin test_branch)</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Удаление одной записи отложенных изменений</t>
+  </si>
+  <si>
+    <t>git push (origin) :(test_branch)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -433,50 +433,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
